--- a/ApolloQA/Data/RatingManual/GA/VA00055.xlsx
+++ b/ApolloQA/Data/RatingManual/GA/VA00055.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00055" sheetId="1" r:id="R874333cc5a8c4d99"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00055" sheetId="1" r:id="R851130734da14c7f"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -26,95 +26,51 @@
         <x:v/>
       </x:c>
       <x:c t="str">
-        <x:v>VA00055.BaseRateFactors</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>x</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>VA00055.IsAccidentPreventionFactors</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>x</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>VA00055.CoveredAutosFactors</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>x</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>VA00055.IsVehicleLevelSafetyFeaturesFactors</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>x</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>VA00055.LimitFactors</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>x</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>VA00055.ClassCodeFactors</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>x</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>VA00055.OrganizationTypeFactors</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>x</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>VA00055.BusinessExperienceFactors</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>x</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>VA00055.BillingType_IsEFT_PaymentPlanFactors</x:v>
+        <x:v>Non Owned Rating Mileage</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>x</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>OR00022.BaseRateFactors</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>x</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>OR00022.PredominantRatingGroupFactors</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>x</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>OR00022.InsuranceScoreTierFactors</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>x</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>OR00022.BillingType_IsEFT_PaymentPlanFactors</x:v>
       </x:c>
       <x:c t="str">
         <x:v/>
@@ -129,6 +85,50 @@
       </x:c>
       <x:c t="str">
         <x:v>DR</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Round [0]</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>=</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Manual Basic Limits Premium</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>x</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Increased Limit Factor</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>SR.1</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>x</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Excess Limits Rating Factor</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>SR.6</x:v>
       </x:c>
     </x:row>
     <x:row>
